--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Represantation of text for reading</t>
-  </si>
-  <si>
     <t>Texts could be heared as audio</t>
   </si>
   <si>
-    <t>Selected sub-texts could be heared as audio</t>
-  </si>
-  <si>
     <t>Representation of definitions of difficult words</t>
   </si>
   <si>
@@ -69,12 +63,6 @@
     <t>Feedback for repeated words in an answer</t>
   </si>
   <si>
-    <t>Suggestions of alternative for repeated words</t>
-  </si>
-  <si>
-    <t>Hyper links to external educational online games</t>
-  </si>
-  <si>
     <t>Score accumulatation for external educational online games</t>
   </si>
   <si>
@@ -169,13 +157,40 @@
   </si>
   <si>
     <t>Existing teachers could be appointed as admins</t>
+  </si>
+  <si>
+    <t>Representation of text for reading</t>
+  </si>
+  <si>
+    <t>Selected sub-texts could be heard as audio</t>
+  </si>
+  <si>
+    <t>Suggestions of alternatives for repeated words in an answer</t>
+  </si>
+  <si>
+    <t>Hyperlinks to external educational online games</t>
+  </si>
+  <si>
+    <t>new ones</t>
+  </si>
+  <si>
+    <t>Pupils could log in to the system</t>
+  </si>
+  <si>
+    <t>Pupils could log out of the system</t>
+  </si>
+  <si>
+    <t>Teachers could log in to the system</t>
+  </si>
+  <si>
+    <t>Teachers could log out of the system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,12 +235,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -272,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,9 +329,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,6 +381,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,14 +574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -529,7 +590,7 @@
     <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,386 +613,623 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="E23" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="E30" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="E31" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="E32" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>35</v>
+      </c>
+      <c r="E34" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="E35" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="E36" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="E37" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>39</v>
+      </c>
+      <c r="E38" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="E39" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="E40" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="E41" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="E42" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>44</v>
+      </c>
+      <c r="E43" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="E44" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -941,26 +1239,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -39,12 +39,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Texts could be heared as audio</t>
-  </si>
-  <si>
-    <t>Representation of definitions of difficult words</t>
-  </si>
-  <si>
     <t>Ability to answer questions related to a text</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>Existing teachers could be appointed as admins</t>
   </si>
   <si>
-    <t>Representation of text for reading</t>
-  </si>
-  <si>
     <t>Selected sub-texts could be heard as audio</t>
   </si>
   <si>
@@ -184,6 +175,15 @@
   </si>
   <si>
     <t>Teachers could log out of the system</t>
+  </si>
+  <si>
+    <t>Texts could be heard as audio</t>
+  </si>
+  <si>
+    <t>Viewing definitions of difficult words</t>
+  </si>
+  <si>
+    <t>Viewing text for reading</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -686,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -720,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -771,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -788,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -822,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -839,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -856,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3">
         <v>42686</v>
@@ -884,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3">
         <v>42686</v>
@@ -895,7 +895,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" s="3">
         <v>42686</v>
@@ -906,7 +906,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3">
         <v>42686</v>
@@ -917,7 +917,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3">
         <v>42686</v>
@@ -928,7 +928,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" s="3">
         <v>42686</v>
@@ -939,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="3">
         <v>42686</v>
@@ -950,7 +950,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24" s="3">
         <v>42686</v>
@@ -961,7 +961,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25" s="3">
         <v>42686</v>
@@ -972,7 +972,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26" s="3">
         <v>42686</v>
@@ -983,7 +983,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="3">
         <v>42686</v>
@@ -994,7 +994,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E28" s="3">
         <v>42686</v>
@@ -1005,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E29" s="3">
         <v>42686</v>
@@ -1016,7 +1016,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" s="3">
         <v>42686</v>
@@ -1027,7 +1027,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3">
         <v>42686</v>
@@ -1038,7 +1038,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32" s="3">
         <v>42686</v>
@@ -1049,7 +1049,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E33" s="3">
         <v>42686</v>
@@ -1060,7 +1060,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" s="3">
         <v>42686</v>
@@ -1071,7 +1071,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="3">
         <v>42686</v>
@@ -1082,7 +1082,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36" s="3">
         <v>42686</v>
@@ -1093,7 +1093,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3">
         <v>42686</v>
@@ -1104,7 +1104,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="3">
         <v>42686</v>
@@ -1115,7 +1115,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E39" s="3">
         <v>42686</v>
@@ -1126,7 +1126,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E40" s="3">
         <v>42686</v>
@@ -1137,7 +1137,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E41" s="3">
         <v>42686</v>
@@ -1148,7 +1148,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E42" s="3">
         <v>42686</v>
@@ -1159,7 +1159,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E43" s="3">
         <v>42686</v>
@@ -1170,7 +1170,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E44" s="3">
         <v>42686</v>
@@ -1181,7 +1181,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E45" s="3">
         <v>42686</v>
@@ -1197,7 +1197,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1221,7 +1221,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>4</v>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Hyperlinks to external educational online games</t>
   </si>
   <si>
-    <t>new ones</t>
-  </si>
-  <si>
     <t>Pupils could log in to the system</t>
   </si>
   <si>
@@ -184,13 +181,19 @@
   </si>
   <si>
     <t>Viewing text for reading</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Answer could be submited</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +238,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,27 +336,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,24 +370,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,14 +545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -590,7 +561,7 @@
     <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -613,623 +584,977 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="3">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="3">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="3">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="3">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="3">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="3">
-        <v>42686</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="C50" s="3">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3</v>
+      </c>
+      <c r="E50" s="4">
+        <v>42686</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1239,26 +1564,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -187,6 +187,30 @@
   </si>
   <si>
     <t>Answer could be submited</t>
+  </si>
+  <si>
+    <t>Pupil will get a notification when he got a feedback</t>
+  </si>
+  <si>
+    <t>Pupils can be connected to a class</t>
+  </si>
+  <si>
+    <t>Teachers can be connected to a class</t>
+  </si>
+  <si>
+    <t>Pupils can be disconnected from a class</t>
+  </si>
+  <si>
+    <t>Teachers can be disconnected from a class</t>
+  </si>
+  <si>
+    <t>A class can be created</t>
+  </si>
+  <si>
+    <t>A class can be removed</t>
+  </si>
+  <si>
+    <t>Class details can be edited</t>
   </si>
 </sst>
 </file>
@@ -546,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1555,6 +1579,176 @@
     <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="3">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>42686</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>42686</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>42686</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4">
+        <v>42686</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4">
+        <v>42686</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4">
+        <v>42686</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="3">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>42686</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4">
+        <v>42686</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="4">
-        <v>42686</v>
+        <v>42687</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>55</v>
@@ -1590,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="4">
-        <v>42686</v>
+        <v>42687</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>55</v>
@@ -1610,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="4">
-        <v>42686</v>
+        <v>42687</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>55</v>
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="4">
-        <v>42686</v>
+        <v>42687</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>55</v>
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="4">
-        <v>42686</v>
+        <v>42687</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>55</v>
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="4">
-        <v>42686</v>
+        <v>42687</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>55</v>
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="4">
-        <v>42686</v>
+        <v>42687</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>55</v>
@@ -1710,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="4">
-        <v>42686</v>
+        <v>42687</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>55</v>
@@ -1730,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="4">
-        <v>42686</v>
+        <v>42687</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>55</v>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>Class details can be edited</t>
+  </si>
+  <si>
+    <t>pupils get notification on new texts that has been uploaded for them</t>
+  </si>
+  <si>
+    <t>pupils get notification on new question that has been uploaded for them</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,6 +274,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,7 +293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,15 +577,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="2" max="2" width="56.5" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
@@ -930,8 +937,12 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
       <c r="E17" s="4">
         <v>42686</v>
       </c>
@@ -947,8 +958,12 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
       <c r="E18" s="4">
         <v>42686</v>
       </c>
@@ -964,8 +979,12 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
       <c r="E19" s="4">
         <v>42686</v>
       </c>
@@ -981,8 +1000,12 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
       <c r="E20" s="4">
         <v>42686</v>
       </c>
@@ -998,8 +1021,12 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
       <c r="E21" s="4">
         <v>42686</v>
       </c>
@@ -1015,8 +1042,12 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
       <c r="E22" s="4">
         <v>42686</v>
       </c>
@@ -1032,8 +1063,12 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
       <c r="E23" s="4">
         <v>42686</v>
       </c>
@@ -1049,8 +1084,12 @@
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
       <c r="E24" s="4">
         <v>42686</v>
       </c>
@@ -1066,8 +1105,12 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
       <c r="E25" s="4">
         <v>42686</v>
       </c>
@@ -1083,8 +1126,12 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
       <c r="E26" s="4">
         <v>42686</v>
       </c>
@@ -1100,8 +1147,12 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
       <c r="E27" s="4">
         <v>42686</v>
       </c>
@@ -1117,8 +1168,12 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
       <c r="E28" s="4">
         <v>42686</v>
       </c>
@@ -1134,8 +1189,12 @@
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
       <c r="E29" s="4">
         <v>42686</v>
       </c>
@@ -1151,8 +1210,12 @@
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
       <c r="E30" s="4">
         <v>42686</v>
       </c>
@@ -1168,8 +1231,12 @@
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="3">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
       <c r="E31" s="4">
         <v>42686</v>
       </c>
@@ -1745,10 +1812,60 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
+      <c r="B60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3</v>
+      </c>
+      <c r="E60" s="4">
+        <v>42687</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3">
+        <v>3</v>
+      </c>
+      <c r="E61" s="4">
+        <v>42687</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1807,13 +1807,28 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
+      <c r="B59" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+      <c r="D59" s="3">
+        <v>3</v>
+      </c>
+      <c r="E59" s="4">
+        <v>42687</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>65</v>
+      <c r="B60" t="s">
+        <v>66</v>
       </c>
       <c r="C60" s="3">
         <v>3</v>
@@ -1831,21 +1846,6 @@
     <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="3">
-        <v>3</v>
-      </c>
-      <c r="D61" s="3">
-        <v>3</v>
-      </c>
-      <c r="E61" s="4">
-        <v>42687</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:7">

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -213,10 +213,19 @@
     <t>Class details can be edited</t>
   </si>
   <si>
-    <t>pupils get notification on new texts that has been uploaded for them</t>
-  </si>
-  <si>
-    <t>pupils get notification on new question that has been uploaded for them</t>
+    <t>"       "          "        "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"       "          "        " </t>
+  </si>
+  <si>
+    <t>permission for teachers as well?</t>
+  </si>
+  <si>
+    <t>pupils get notification on new texts that have been uploaded for them</t>
+  </si>
+  <si>
+    <t>pupils get notification on new question that have been uploaded for them</t>
   </si>
 </sst>
 </file>
@@ -577,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -590,6 +599,7 @@
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
@@ -1602,7 +1612,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1623,7 +1633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1643,7 +1653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1663,7 +1673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1683,7 +1693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1723,7 +1733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1743,7 +1753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1762,8 +1772,11 @@
       <c r="G56" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1782,8 +1795,11 @@
       <c r="G57" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1802,13 +1818,16 @@
       <c r="G58" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
@@ -1823,12 +1842,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C60" s="3">
         <v>3</v>
@@ -1843,22 +1862,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>63</v>
       </c>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -213,19 +213,28 @@
     <t>Class details can be edited</t>
   </si>
   <si>
-    <t>"       "          "        "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"       "          "        " </t>
-  </si>
-  <si>
-    <t>permission for teachers as well?</t>
-  </si>
-  <si>
-    <t>pupils get notification on new texts that have been uploaded for them</t>
-  </si>
-  <si>
-    <t>pupils get notification on new question that have been uploaded for them</t>
+    <t>pupils get notification for new uploaded assignment</t>
+  </si>
+  <si>
+    <t>The list of all of the classes can be viewed</t>
+  </si>
+  <si>
+    <t>The list of all of the pupils in a specific class can be viewed</t>
+  </si>
+  <si>
+    <t>The list of all of the teachers in a specific class can be viewed</t>
+  </si>
+  <si>
+    <t>Teacher's details can be viewed be clicking on him</t>
+  </si>
+  <si>
+    <t>Pupil's details can be viewed by clicking on him</t>
+  </si>
+  <si>
+    <t>The list of all of the teachers can be viewed</t>
+  </si>
+  <si>
+    <t>The list of all of the pupils can be viewed</t>
   </si>
 </sst>
 </file>
@@ -302,7 +311,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1536,7 +1545,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -1612,7 +1621,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1653,7 +1662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1673,7 +1682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1693,7 +1702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1772,11 +1781,8 @@
       <c r="G56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1795,11 +1801,8 @@
       <c r="G57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1818,16 +1821,13 @@
       <c r="G58" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
@@ -1842,49 +1842,169 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>69</v>
+      <c r="B60" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C60" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" s="4">
-        <v>42687</v>
+        <v>42690</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="B61" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4">
+        <v>42690</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="B62" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4">
+        <v>42690</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="B63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="3">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4">
+        <v>42690</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4">
+        <v>42690</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="3">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4">
+        <v>42690</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4">
+        <v>42690</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -39,9 +39,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Ability to answer questions related to a text</t>
-  </si>
-  <si>
     <t>Feedback for number of words in an answer</t>
   </si>
   <si>
@@ -235,13 +232,16 @@
   </si>
   <si>
     <t>The list of all of the pupils can be viewed</t>
+  </si>
+  <si>
+    <t>Ability to answer questions related to a text after reading it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,9 +385,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,6 +437,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,14 +630,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" activeCellId="1" sqref="B8 B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="56.5" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -611,7 +647,7 @@
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,12 +670,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -652,15 +688,15 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
@@ -673,15 +709,15 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -694,15 +730,15 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -715,15 +751,15 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -736,15 +772,15 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
@@ -757,15 +793,15 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -778,15 +814,15 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
@@ -799,15 +835,15 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
@@ -820,15 +856,15 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
@@ -841,15 +877,15 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -862,15 +898,15 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
@@ -883,15 +919,15 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -904,15 +940,15 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -925,15 +961,15 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -946,15 +982,15 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -967,15 +1003,15 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -988,15 +1024,15 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -1009,15 +1045,15 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
@@ -1030,15 +1066,15 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3">
         <v>5</v>
@@ -1051,15 +1087,15 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
@@ -1072,15 +1108,15 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
@@ -1093,15 +1129,15 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
@@ -1114,15 +1150,15 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
@@ -1135,15 +1171,15 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -1156,15 +1192,15 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
@@ -1177,15 +1213,15 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
@@ -1198,15 +1234,15 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3">
         <v>5</v>
@@ -1219,15 +1255,15 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
@@ -1240,15 +1276,15 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3">
         <v>5</v>
@@ -1261,15 +1297,15 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -1282,15 +1318,15 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3">
         <v>4</v>
@@ -1303,15 +1339,15 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -1324,15 +1360,15 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
@@ -1345,15 +1381,15 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3">
         <v>5</v>
@@ -1366,15 +1402,15 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
@@ -1387,15 +1423,15 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -1408,15 +1444,15 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -1429,15 +1465,15 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
@@ -1450,15 +1486,15 @@
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
@@ -1471,15 +1507,15 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
@@ -1492,15 +1528,15 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3">
         <v>4</v>
@@ -1513,15 +1549,15 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
@@ -1534,15 +1570,15 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1555,15 +1591,15 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -1576,15 +1612,15 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="3">
         <v>4</v>
@@ -1597,15 +1633,15 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="3">
         <v>5</v>
@@ -1618,15 +1654,15 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="3">
         <v>4</v>
@@ -1639,15 +1675,15 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3">
         <v>5</v>
@@ -1659,15 +1695,15 @@
         <v>42687</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="3">
         <v>4</v>
@@ -1679,15 +1715,15 @@
         <v>42687</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="3">
         <v>5</v>
@@ -1699,15 +1735,15 @@
         <v>42687</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="3">
         <v>5</v>
@@ -1719,15 +1755,15 @@
         <v>42687</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="3">
         <v>4</v>
@@ -1739,15 +1775,15 @@
         <v>42687</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="3">
         <v>4</v>
@@ -1759,15 +1795,15 @@
         <v>42687</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="3">
         <v>5</v>
@@ -1779,15 +1815,15 @@
         <v>42687</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="3">
         <v>4</v>
@@ -1799,15 +1835,15 @@
         <v>42687</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="3">
         <v>4</v>
@@ -1819,15 +1855,15 @@
         <v>42687</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
@@ -1839,15 +1875,15 @@
         <v>42687</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="3">
         <v>5</v>
@@ -1859,15 +1895,15 @@
         <v>42690</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -1879,15 +1915,15 @@
         <v>42690</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="3">
         <v>5</v>
@@ -1899,15 +1935,15 @@
         <v>42690</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -1919,15 +1955,15 @@
         <v>42690</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -1939,15 +1975,15 @@
         <v>42690</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="3">
         <v>5</v>
@@ -1959,15 +1995,15 @@
         <v>42690</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -1979,30 +2015,30 @@
         <v>42690</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2014,26 +2050,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -66,9 +66,6 @@
     <t>Ability to compare between scores of other pupils</t>
   </si>
   <si>
-    <t>Check button for feedbacking all the answer's parameters</t>
-  </si>
-  <si>
     <t>Marking and correcting sequence of repeated words</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Ability to answer questions related to a text after reading it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Check" button - upon clicking the pupil recieves feedback for answer  </t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" activeCellId="1" sqref="B8 B8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -688,7 +688,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
@@ -709,7 +709,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -751,7 +751,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -772,7 +772,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -835,7 +835,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -906,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
@@ -919,7 +919,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -961,7 +961,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1053,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1074,7 +1074,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
         <v>5</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1095,7 +1095,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1137,7 +1137,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1221,7 +1221,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3">
         <v>5</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1263,7 +1263,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1284,7 +1284,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3">
         <v>5</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1326,7 +1326,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3">
         <v>4</v>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>4</v>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1368,7 +1368,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1389,7 +1389,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3">
         <v>5</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1431,7 +1431,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1452,7 +1452,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1473,7 +1473,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1536,7 +1536,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3">
         <v>4</v>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1557,7 +1557,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1599,7 +1599,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1620,7 +1620,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="3">
         <v>4</v>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1641,7 +1641,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="3">
         <v>5</v>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="3">
         <v>4</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1683,7 +1683,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="3">
         <v>5</v>
@@ -1695,7 +1695,7 @@
         <v>42687</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1703,7 +1703,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3">
         <v>4</v>
@@ -1715,7 +1715,7 @@
         <v>42687</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1723,7 +1723,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="3">
         <v>5</v>
@@ -1735,7 +1735,7 @@
         <v>42687</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1743,7 +1743,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="3">
         <v>5</v>
@@ -1755,7 +1755,7 @@
         <v>42687</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1763,7 +1763,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="3">
         <v>4</v>
@@ -1775,7 +1775,7 @@
         <v>42687</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1783,7 +1783,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="3">
         <v>4</v>
@@ -1795,7 +1795,7 @@
         <v>42687</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="3">
         <v>5</v>
@@ -1815,7 +1815,7 @@
         <v>42687</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1823,7 +1823,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="3">
         <v>4</v>
@@ -1835,7 +1835,7 @@
         <v>42687</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1843,7 +1843,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="3">
         <v>4</v>
@@ -1855,7 +1855,7 @@
         <v>42687</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1863,7 +1863,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
@@ -1875,7 +1875,7 @@
         <v>42687</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1883,7 +1883,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="3">
         <v>5</v>
@@ -1895,7 +1895,7 @@
         <v>42690</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1903,7 +1903,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -1915,7 +1915,7 @@
         <v>42690</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -1923,7 +1923,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3">
         <v>5</v>
@@ -1935,7 +1935,7 @@
         <v>42690</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -1955,7 +1955,7 @@
         <v>42690</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -1975,7 +1975,7 @@
         <v>42690</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -1983,7 +1983,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="3">
         <v>5</v>
@@ -1995,7 +1995,7 @@
         <v>42690</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2003,7 +2003,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -2015,7 +2015,7 @@
         <v>42690</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -219,22 +219,28 @@
     <t>The list of all of the teachers in a specific class can be viewed</t>
   </si>
   <si>
-    <t>Teacher's details can be viewed be clicking on him</t>
-  </si>
-  <si>
-    <t>Pupil's details can be viewed by clicking on him</t>
-  </si>
-  <si>
-    <t>The list of all of the teachers can be viewed</t>
-  </si>
-  <si>
-    <t>The list of all of the pupils can be viewed</t>
-  </si>
-  <si>
     <t>Ability to answer questions related to a text after reading it</t>
   </si>
   <si>
     <t xml:space="preserve">"Check" button - upon clicking the pupil recieves feedback for answer  </t>
+  </si>
+  <si>
+    <t>Pupil's details can be viewed by any teacher teaching him</t>
+  </si>
+  <si>
+    <t>A list of all pupils in the system can be viewed</t>
+  </si>
+  <si>
+    <t>A list of al teachers in the system can be viewed</t>
+  </si>
+  <si>
+    <t>Pupil's details can be viewed by himself</t>
+  </si>
+  <si>
+    <t>Details about a teacher can be viewed by all teachers</t>
+  </si>
+  <si>
+    <t>Details about a teacher can be viewed by their pupils</t>
   </si>
 </sst>
 </file>
@@ -631,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -1011,7 +1017,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1943,7 +1949,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -1952,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="4">
-        <v>42690</v>
+        <v>42703</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>53</v>
@@ -1963,7 +1969,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -1972,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="4">
-        <v>42690</v>
+        <v>42703</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>53</v>
@@ -1983,7 +1989,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C65" s="3">
         <v>5</v>
@@ -1992,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="4">
-        <v>42690</v>
+        <v>42703</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>53</v>
@@ -2003,7 +2009,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -2012,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="4">
-        <v>42690</v>
+        <v>42703</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>53</v>
@@ -2022,11 +2028,41 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
+      <c r="B67" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="3">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4">
+        <v>42690</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
+      <c r="B68" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="3">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4">
+        <v>42690</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -2042,6 +2078,9 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -246,8 +246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,27 +391,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,24 +425,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,14 +600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="56.5" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -653,7 +617,7 @@
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -697,7 +661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -718,7 +682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -739,7 +703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -760,7 +724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -781,7 +745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -802,7 +766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -823,7 +787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -844,7 +808,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -865,7 +829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -886,7 +850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -907,7 +871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -928,7 +892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -949,7 +913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -970,7 +934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -991,7 +955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1012,7 +976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1033,7 +997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1054,7 +1018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1075,7 +1039,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1096,7 +1060,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1117,7 +1081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1138,7 +1102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1159,7 +1123,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1180,7 +1144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1201,7 +1165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1222,7 +1186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1243,7 +1207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1264,7 +1228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1285,7 +1249,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1306,7 +1270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1327,7 +1291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1348,7 +1312,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1369,7 +1333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1390,7 +1354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1411,7 +1375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1432,7 +1396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1453,7 +1417,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1474,7 +1438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1495,7 +1459,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1516,7 +1480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1537,7 +1501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1558,7 +1522,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1579,7 +1543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1600,7 +1564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1621,7 +1585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1642,7 +1606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1663,7 +1627,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1684,7 +1648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1704,7 +1668,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1724,7 +1688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1744,7 +1708,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1764,7 +1728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1784,7 +1748,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1804,7 +1768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1824,7 +1788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1844,7 +1808,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1864,7 +1828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1884,7 +1848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1904,7 +1868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1924,7 +1888,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1944,7 +1908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1964,7 +1928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1984,7 +1948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2004,7 +1968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2024,7 +1988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2044,7 +2008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2064,22 +2028,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -2089,26 +2047,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -241,17 +241,38 @@
   </si>
   <si>
     <t>Details about a teacher can be viewed by their pupils</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>txt files only</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Connector words only</t>
+  </si>
+  <si>
+    <t>UI only</t>
+  </si>
+  <si>
+    <t>no color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -259,17 +280,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,6 +338,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,9 +439,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,6 +491,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -600,24 +684,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:A71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,8 +723,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -657,11 +744,14 @@
         <v>42686</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -678,11 +768,12 @@
         <v>42686</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -699,11 +790,12 @@
         <v>42686</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -720,11 +812,12 @@
         <v>42686</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -741,11 +834,12 @@
         <v>42686</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -762,11 +856,12 @@
         <v>42686</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -783,11 +878,12 @@
         <v>42686</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -804,11 +900,12 @@
         <v>42686</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -825,11 +922,12 @@
         <v>42686</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -846,11 +944,14 @@
         <v>42686</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -867,11 +968,14 @@
         <v>42686</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -888,11 +992,12 @@
         <v>42686</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -909,11 +1014,12 @@
         <v>42686</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -930,11 +1036,12 @@
         <v>42686</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -951,11 +1058,12 @@
         <v>42686</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -972,11 +1080,12 @@
         <v>42686</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -993,11 +1102,12 @@
         <v>42686</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1014,11 +1124,12 @@
         <v>42686</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1035,11 +1146,14 @@
         <v>42686</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1056,11 +1170,12 @@
         <v>42686</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1077,11 +1192,12 @@
         <v>42686</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1098,11 +1214,12 @@
         <v>42686</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1119,11 +1236,12 @@
         <v>42686</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1140,11 +1258,12 @@
         <v>42686</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1161,11 +1280,14 @@
         <v>42686</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1182,11 +1304,12 @@
         <v>42686</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1203,11 +1326,12 @@
         <v>42686</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1224,11 +1348,14 @@
         <v>42686</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1245,11 +1372,12 @@
         <v>42686</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1266,11 +1394,12 @@
         <v>42686</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1287,11 +1416,14 @@
         <v>42686</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1308,11 +1440,12 @@
         <v>42686</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1329,11 +1462,12 @@
         <v>42686</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1350,11 +1484,12 @@
         <v>42686</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1371,11 +1506,12 @@
         <v>42686</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1392,11 +1528,14 @@
         <v>42686</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1413,11 +1552,12 @@
         <v>42686</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1434,11 +1574,12 @@
         <v>42686</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1455,11 +1596,12 @@
         <v>42686</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="G40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1476,11 +1618,12 @@
         <v>42686</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="G41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1497,11 +1640,12 @@
         <v>42686</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="G42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1518,11 +1662,12 @@
         <v>42686</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="G43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1539,11 +1684,12 @@
         <v>42686</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1560,11 +1706,12 @@
         <v>42686</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="G45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1581,11 +1728,12 @@
         <v>42686</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="G46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1602,11 +1750,12 @@
         <v>42686</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1623,11 +1772,12 @@
         <v>42686</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="G48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1644,11 +1794,12 @@
         <v>42686</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="G49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1664,11 +1815,14 @@
       <c r="E50" s="4">
         <v>42687</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1684,11 +1838,12 @@
       <c r="E51" s="4">
         <v>42687</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="G51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1704,11 +1859,12 @@
       <c r="E52" s="4">
         <v>42687</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="G52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1724,11 +1880,12 @@
       <c r="E53" s="4">
         <v>42687</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="G53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1744,11 +1901,12 @@
       <c r="E54" s="4">
         <v>42687</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="G54" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1764,11 +1922,12 @@
       <c r="E55" s="4">
         <v>42687</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="G55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1784,11 +1943,12 @@
       <c r="E56" s="4">
         <v>42687</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="G56" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1804,11 +1964,12 @@
       <c r="E57" s="4">
         <v>42687</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="G57" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1824,11 +1985,12 @@
       <c r="E58" s="4">
         <v>42687</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1844,11 +2006,12 @@
       <c r="E59" s="4">
         <v>42687</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="G59" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1864,11 +2027,12 @@
       <c r="E60" s="4">
         <v>42690</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="G60" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1884,11 +2048,12 @@
       <c r="E61" s="4">
         <v>42690</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="G61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1904,11 +2069,12 @@
       <c r="E62" s="4">
         <v>42690</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="G62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1924,11 +2090,12 @@
       <c r="E63" s="4">
         <v>42703</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="G63" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1944,11 +2111,12 @@
       <c r="E64" s="4">
         <v>42703</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="G64" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1964,11 +2132,12 @@
       <c r="E65" s="4">
         <v>42703</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="G65" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1984,11 +2153,12 @@
       <c r="E66" s="4">
         <v>42703</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="G66" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2004,11 +2174,12 @@
       <c r="E67" s="4">
         <v>42690</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="G67" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2024,20 +2195,21 @@
       <c r="E68" s="4">
         <v>42690</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="G68" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -2047,26 +2219,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -688,7 +688,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,10 +922,12 @@
         <v>42686</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="3"/>
+      <c r="G10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -688,7 +688,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,10 +812,12 @@
         <v>42686</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="3"/>
+      <c r="G5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -267,12 +267,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +280,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -365,7 +365,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -407,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,27 +439,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,24 +473,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,24 +648,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -751,7 +715,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -773,7 +737,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -795,7 +759,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -819,7 +783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -841,7 +805,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -857,13 +821,15 @@
       <c r="E7" s="4">
         <v>42686</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4">
+        <v>42804</v>
+      </c>
       <c r="G7" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -879,13 +845,15 @@
       <c r="E8" s="4">
         <v>42686</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4">
+        <v>42804</v>
+      </c>
       <c r="G8" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -901,13 +869,15 @@
       <c r="E9" s="4">
         <v>42686</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4">
+        <v>42804</v>
+      </c>
       <c r="G9" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -931,7 +901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -955,7 +925,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -979,7 +949,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1001,7 +971,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1023,7 +993,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1045,7 +1015,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1067,7 +1037,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1089,7 +1059,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1105,13 +1075,15 @@
       <c r="E18" s="4">
         <v>42686</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="4">
+        <v>42755</v>
+      </c>
       <c r="G18" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1133,7 +1105,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1157,7 +1129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1179,7 +1151,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1201,7 +1173,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1223,7 +1195,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1245,7 +1217,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1267,7 +1239,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1291,7 +1263,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1313,7 +1285,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1335,7 +1307,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1359,7 +1331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1381,7 +1353,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1403,7 +1375,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1427,7 +1399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1449,7 +1421,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1471,7 +1443,7 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1493,7 +1465,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1515,7 +1487,7 @@
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1539,7 +1511,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1561,7 +1533,7 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1583,7 +1555,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1605,7 +1577,7 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1627,7 +1599,7 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1649,7 +1621,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1671,7 +1643,7 @@
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1693,7 +1665,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1715,7 +1687,7 @@
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1737,7 +1709,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1759,7 +1731,7 @@
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1781,7 +1753,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1803,7 +1775,7 @@
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1826,7 +1798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1847,7 +1819,7 @@
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1868,7 +1840,7 @@
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1889,7 +1861,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1910,7 +1882,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1931,7 +1903,7 @@
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1952,7 +1924,7 @@
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1973,7 +1945,7 @@
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1994,7 +1966,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2015,7 +1987,7 @@
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2036,7 +2008,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2057,7 +2029,7 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2078,7 +2050,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2099,7 +2071,7 @@
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2120,7 +2092,7 @@
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2141,7 +2113,7 @@
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2162,7 +2134,7 @@
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2183,7 +2155,7 @@
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2204,16 +2176,16 @@
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -2223,26 +2195,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -262,17 +262,20 @@
   </si>
   <si>
     <t>no color</t>
+  </si>
+  <si>
+    <t>14/04/2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +283,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -365,7 +368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -407,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,9 +442,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,6 +494,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -648,24 +687,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,7 +730,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -715,7 +754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -737,7 +776,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -759,7 +798,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -783,7 +822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -805,7 +844,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -829,7 +868,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -853,7 +892,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -877,7 +916,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -901,7 +940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -925,7 +964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -949,7 +988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -971,7 +1010,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -993,7 +1032,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1015,7 +1054,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1037,7 +1076,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1059,7 +1098,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1083,7 +1122,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1105,7 +1144,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1121,15 +1160,15 @@
       <c r="E20" s="4">
         <v>42686</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1151,7 +1190,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1173,7 +1212,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1195,7 +1234,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1217,7 +1256,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1239,7 +1278,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1263,7 +1302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1285,7 +1324,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1307,7 +1346,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1331,7 +1370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1353,7 +1392,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1375,7 +1414,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1399,7 +1438,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1421,7 +1460,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1443,7 +1482,7 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1465,7 +1504,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1487,7 +1526,7 @@
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1511,7 +1550,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1533,7 +1572,7 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1555,7 +1594,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1577,7 +1616,7 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1599,7 +1638,7 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1621,7 +1660,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1643,7 +1682,7 @@
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1665,7 +1704,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1687,7 +1726,7 @@
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1709,7 +1748,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1731,7 +1770,7 @@
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1753,7 +1792,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1775,7 +1814,7 @@
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1798,7 +1837,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1819,7 +1858,7 @@
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1840,7 +1879,7 @@
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1861,7 +1900,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1882,7 +1921,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1903,7 +1942,7 @@
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1924,7 +1963,7 @@
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1945,7 +1984,7 @@
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1966,7 +2005,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1987,7 +2026,7 @@
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2008,7 +2047,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2029,7 +2068,7 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2050,7 +2089,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2071,7 +2110,7 @@
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2092,7 +2131,7 @@
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2113,7 +2152,7 @@
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2134,7 +2173,7 @@
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2155,7 +2194,7 @@
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2176,16 +2215,16 @@
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -2195,26 +2234,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>txt files only</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>14/04/2017</t>
+  </si>
+  <si>
+    <t>21/04/2017</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,13 +746,13 @@
       <c r="E2" s="4">
         <v>42686</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>77</v>
       </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -819,7 +819,7 @@
         <v>75</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>42804</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -888,7 +888,7 @@
         <v>42804</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -912,7 +912,7 @@
         <v>42804</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -937,7 +937,7 @@
         <v>75</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>75</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>75</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>42755</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -1161,10 +1161,10 @@
         <v>42686</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1176,7 +1176,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
@@ -1206,9 +1206,11 @@
       <c r="E22" s="4">
         <v>42686</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="6" t="s">
-        <v>53</v>
+      <c r="F22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -1299,7 +1301,7 @@
         <v>75</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,7 +1369,7 @@
         <v>75</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1435,7 +1437,7 @@
         <v>75</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,7 +1549,7 @@
         <v>75</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1834,7 +1836,7 @@
         <v>75</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -141,12 +141,6 @@
     <t>Existing teachers users could be deleted from the system</t>
   </si>
   <si>
-    <t>New admin teachers could be added to the system</t>
-  </si>
-  <si>
-    <t>Existing teachers could be appointed as admins</t>
-  </si>
-  <si>
     <t>Selected sub-texts could be heard as audio</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
   </si>
   <si>
     <t>Viewing text for reading</t>
-  </si>
-  <si>
-    <t>New</t>
   </si>
   <si>
     <t>Answer could be submited</t>
@@ -270,12 +261,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -283,23 +274,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -326,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,9 +330,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -410,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,26 +425,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,23 +460,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,21 +638,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,15 +675,15 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -747,19 +695,19 @@
         <v>42686</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
@@ -772,16 +720,16 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -794,16 +742,16 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -814,20 +762,22 @@
       <c r="E5" s="4">
         <v>42686</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4">
+        <v>42852</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -840,11 +790,11 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -863,12 +813,12 @@
       <c r="F7" s="4">
         <v>42804</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>77</v>
+      <c r="G7" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -887,12 +837,12 @@
       <c r="F8" s="4">
         <v>42804</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>77</v>
+      <c r="G8" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -911,12 +861,12 @@
       <c r="F9" s="4">
         <v>42804</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>77</v>
+      <c r="G9" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -934,13 +884,13 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -958,18 +908,18 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -982,18 +932,18 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
@@ -1006,11 +956,11 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1028,11 +978,11 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1050,11 +1000,11 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1072,11 +1022,11 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1094,16 +1044,16 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1117,12 +1067,12 @@
       <c r="F18" s="4">
         <v>42755</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>77</v>
+      <c r="G18" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1140,11 +1090,11 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1161,14 +1111,14 @@
         <v>42686</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1185,12 +1135,12 @@
         <v>42686</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="6" t="s">
-        <v>53</v>
+      <c r="G21" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1207,14 +1157,14 @@
         <v>42686</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1232,11 +1182,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1254,11 +1204,11 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1276,11 +1226,11 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1297,14 +1247,14 @@
         <v>42686</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="7" t="s">
-        <v>75</v>
+      <c r="G26" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1322,11 +1272,11 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1344,11 +1294,11 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1366,13 +1316,13 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1390,11 +1340,11 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1412,11 +1362,11 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1434,13 +1384,13 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1458,11 +1408,11 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1480,11 +1430,11 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1501,12 +1451,12 @@
         <v>42686</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="7" t="s">
-        <v>75</v>
+      <c r="G35" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1524,11 +1474,11 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1546,13 +1496,13 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1569,12 +1519,12 @@
         <v>42686</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="6" t="s">
-        <v>53</v>
+      <c r="G38" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1591,12 +1541,12 @@
         <v>42686</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="6" t="s">
-        <v>53</v>
+      <c r="G39" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1613,12 +1563,12 @@
         <v>42686</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="6" t="s">
-        <v>53</v>
+      <c r="G40" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1635,12 +1585,12 @@
         <v>42686</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="6" t="s">
-        <v>53</v>
+      <c r="G41" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1657,12 +1607,12 @@
         <v>42686</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="6" t="s">
-        <v>53</v>
+      <c r="G42" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1679,61 +1629,35 @@
         <v>42686</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="6" t="s">
-        <v>53</v>
+      <c r="G43" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="3">
-        <v>3</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>42686</v>
-      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>42686</v>
-      </c>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -1745,17 +1669,17 @@
         <v>42686</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="6" t="s">
-        <v>53</v>
+      <c r="G46" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3">
         <v>4</v>
@@ -1767,17 +1691,17 @@
         <v>42686</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="6" t="s">
-        <v>53</v>
+      <c r="G47" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3">
         <v>5</v>
@@ -1789,17 +1713,17 @@
         <v>42686</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="6" t="s">
-        <v>53</v>
+      <c r="G48" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="3">
         <v>4</v>
@@ -1811,17 +1735,17 @@
         <v>42686</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="6" t="s">
-        <v>53</v>
+      <c r="G49" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3">
         <v>5</v>
@@ -1832,19 +1756,19 @@
       <c r="E50" s="4">
         <v>42687</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>75</v>
+      <c r="G50" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C51" s="3">
         <v>4</v>
@@ -1856,16 +1780,16 @@
         <v>42687</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C52" s="3">
         <v>5</v>
@@ -1876,17 +1800,17 @@
       <c r="E52" s="4">
         <v>42687</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>53</v>
+      <c r="G52" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C53" s="3">
         <v>5</v>
@@ -1897,17 +1821,17 @@
       <c r="E53" s="4">
         <v>42687</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>53</v>
+      <c r="G53" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3">
         <v>4</v>
@@ -1918,17 +1842,17 @@
       <c r="E54" s="4">
         <v>42687</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>53</v>
+      <c r="G54" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C55" s="3">
         <v>4</v>
@@ -1940,16 +1864,16 @@
         <v>42687</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C56" s="3">
         <v>5</v>
@@ -1961,16 +1885,16 @@
         <v>42687</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C57" s="3">
         <v>4</v>
@@ -1982,16 +1906,16 @@
         <v>42687</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C58" s="3">
         <v>4</v>
@@ -2003,16 +1927,16 @@
         <v>42687</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
@@ -2024,16 +1948,16 @@
         <v>42687</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C60" s="3">
         <v>5</v>
@@ -2045,16 +1969,16 @@
         <v>42690</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -2066,16 +1990,16 @@
         <v>42690</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C62" s="3">
         <v>5</v>
@@ -2087,16 +2011,16 @@
         <v>42690</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -2108,16 +2032,16 @@
         <v>42703</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -2129,16 +2053,16 @@
         <v>42703</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C65" s="3">
         <v>5</v>
@@ -2150,16 +2074,16 @@
         <v>42703</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -2171,16 +2095,16 @@
         <v>42703</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C67" s="3">
         <v>5</v>
@@ -2192,16 +2116,16 @@
         <v>42690</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3">
         <v>5</v>
@@ -2213,20 +2137,20 @@
         <v>42690</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -2243,7 +2167,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2255,7 +2179,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -256,12 +256,15 @@
   </si>
   <si>
     <t>21/04/2017</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,9 +428,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,6 +480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,7 +676,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1864,7 +1901,7 @@
         <v>42687</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -1885,7 +1922,7 @@
         <v>42687</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -1906,7 +1943,7 @@
         <v>42687</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H57" s="3"/>
     </row>
@@ -1927,7 +1964,7 @@
         <v>42687</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H58" s="3"/>
     </row>
@@ -1969,7 +2006,7 @@
         <v>42690</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -1990,7 +2027,7 @@
         <v>42690</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H61" s="3"/>
     </row>
@@ -2011,7 +2048,7 @@
         <v>42690</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H62" s="3"/>
     </row>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
   </si>
 </sst>
 </file>
@@ -673,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -686,10 +689,13 @@
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -714,8 +720,11 @@
       <c r="H1" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -739,7 +748,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -761,7 +770,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -783,7 +792,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -809,7 +818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -831,7 +840,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -855,7 +864,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -879,7 +888,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -903,7 +912,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -919,7 +928,9 @@
       <c r="E10" s="4">
         <v>42686</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="G10" s="7" t="s">
         <v>74</v>
       </c>
@@ -927,7 +938,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -951,7 +962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -975,7 +986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -997,7 +1008,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1019,7 +1030,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1041,7 +1052,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1171,7 +1182,9 @@
       <c r="E21" s="4">
         <v>42686</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="G21" s="7" t="s">
         <v>74</v>
       </c>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>14/05/2017</t>
+  </si>
+  <si>
+    <t>27/04/2017</t>
+  </si>
+  <si>
+    <t>20/01/2017</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -272,7 +284,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,12 +292,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +316,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -317,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,6 +354,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,24 +699,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,7 +745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -748,7 +769,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -770,7 +791,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -792,7 +813,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -808,17 +829,15 @@
       <c r="E5" s="4">
         <v>42686</v>
       </c>
-      <c r="F5" s="4">
-        <v>42852</v>
+      <c r="F5" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -834,13 +853,15 @@
       <c r="E6" s="4">
         <v>42686</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6" t="s">
-        <v>72</v>
+      <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -857,14 +878,14 @@
         <v>42686</v>
       </c>
       <c r="F7" s="4">
-        <v>42804</v>
+        <v>43011</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -881,14 +902,14 @@
         <v>42686</v>
       </c>
       <c r="F8" s="4">
-        <v>42804</v>
+        <v>43011</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -905,14 +926,14 @@
         <v>42686</v>
       </c>
       <c r="F9" s="4">
-        <v>42804</v>
+        <v>43011</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -934,11 +955,9 @@
       <c r="G10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -955,14 +974,14 @@
         <v>42686</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
+      <c r="G11" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -979,14 +998,14 @@
         <v>42686</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
+      <c r="G12" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1008,7 +1027,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1025,12 +1044,12 @@
         <v>42686</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="6" t="s">
-        <v>72</v>
+      <c r="G14" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1047,12 +1066,12 @@
         <v>42686</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="6" t="s">
-        <v>72</v>
+      <c r="G15" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1074,7 +1093,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1091,12 +1110,12 @@
         <v>42686</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="6" t="s">
-        <v>72</v>
+      <c r="G17" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1112,15 +1131,15 @@
       <c r="E18" s="4">
         <v>42686</v>
       </c>
-      <c r="F18" s="4">
-        <v>42755</v>
+      <c r="F18" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1142,7 +1161,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1166,7 +1185,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1190,7 +1209,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1214,7 +1233,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1231,12 +1250,12 @@
         <v>42686</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="6" t="s">
-        <v>72</v>
+      <c r="G23" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1253,12 +1272,12 @@
         <v>42686</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="6" t="s">
-        <v>72</v>
+      <c r="G24" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1275,12 +1294,12 @@
         <v>42686</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="6" t="s">
-        <v>72</v>
+      <c r="G25" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1304,7 +1323,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1326,7 +1345,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1348,7 +1367,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1365,14 +1384,12 @@
         <v>42686</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1394,7 +1411,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1416,7 +1433,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1436,11 +1453,9 @@
       <c r="G32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1462,7 +1477,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1484,7 +1499,7 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1506,7 +1521,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1528,7 +1543,7 @@
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1552,7 +1567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1574,7 +1589,7 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1596,7 +1611,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1618,7 +1633,7 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1640,7 +1655,7 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1662,7 +1677,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1684,7 +1699,7 @@
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1694,7 +1709,7 @@
       <c r="F44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1702,7 +1717,7 @@
       <c r="F45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1724,7 +1739,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1746,7 +1761,7 @@
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1768,7 +1783,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1790,7 +1805,7 @@
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1813,7 +1828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1834,7 +1849,7 @@
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1855,7 +1870,7 @@
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1876,7 +1891,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1897,7 +1912,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1918,7 +1933,7 @@
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1939,7 +1954,7 @@
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1960,7 +1975,7 @@
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1981,7 +1996,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2002,7 +2017,7 @@
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2023,7 +2038,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2044,7 +2059,7 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2065,7 +2080,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2086,7 +2101,7 @@
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2107,7 +2122,7 @@
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2128,7 +2143,7 @@
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2149,7 +2164,7 @@
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2170,7 +2185,7 @@
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2191,16 +2206,16 @@
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -2217,7 +2232,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2229,7 +2244,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>23/05/2017</t>
   </si>
 </sst>
 </file>
@@ -699,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,9 +1386,11 @@
       <c r="E29" s="4">
         <v>42686</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="6" t="s">
-        <v>72</v>
+      <c r="F29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -1449,7 +1454,9 @@
       <c r="E32" s="4">
         <v>42686</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G32" s="7" t="s">
         <v>74</v>
       </c>
@@ -1559,7 +1566,9 @@
       <c r="E37" s="4">
         <v>42686</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G37" s="7" t="s">
         <v>74</v>
       </c>
@@ -1583,7 +1592,9 @@
       <c r="E38" s="4">
         <v>42686</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G38" s="7" t="s">
         <v>74</v>
       </c>
@@ -1605,7 +1616,9 @@
       <c r="E39" s="4">
         <v>42686</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G39" s="7" t="s">
         <v>74</v>
       </c>
@@ -1627,7 +1640,9 @@
       <c r="E40" s="4">
         <v>42686</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G40" s="7" t="s">
         <v>74</v>
       </c>
@@ -1649,7 +1664,9 @@
       <c r="E41" s="4">
         <v>42686</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G41" s="7" t="s">
         <v>74</v>
       </c>
@@ -1671,7 +1688,9 @@
       <c r="E42" s="4">
         <v>42686</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G42" s="7" t="s">
         <v>74</v>
       </c>
@@ -1693,7 +1712,9 @@
       <c r="E43" s="4">
         <v>42686</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G43" s="7" t="s">
         <v>74</v>
       </c>
@@ -1733,7 +1754,9 @@
       <c r="E46" s="4">
         <v>42686</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G46" s="7" t="s">
         <v>74</v>
       </c>
@@ -1755,7 +1778,9 @@
       <c r="E47" s="4">
         <v>42686</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G47" s="7" t="s">
         <v>74</v>
       </c>
@@ -1777,7 +1802,9 @@
       <c r="E48" s="4">
         <v>42686</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G48" s="7" t="s">
         <v>74</v>
       </c>
@@ -1799,7 +1826,9 @@
       <c r="E49" s="4">
         <v>42686</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G49" s="7" t="s">
         <v>74</v>
       </c>
@@ -1865,6 +1894,9 @@
       <c r="E52" s="4">
         <v>42687</v>
       </c>
+      <c r="F52" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G52" s="7" t="s">
         <v>74</v>
       </c>
@@ -1886,6 +1918,9 @@
       <c r="E53" s="4">
         <v>42687</v>
       </c>
+      <c r="F53" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G53" s="7" t="s">
         <v>74</v>
       </c>
@@ -1906,6 +1941,9 @@
       </c>
       <c r="E54" s="4">
         <v>42687</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>74</v>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>23/05/2017</t>
+  </si>
+  <si>
+    <t>27/05/2017</t>
   </si>
 </sst>
 </file>
@@ -702,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,13 +1321,13 @@
       <c r="E26" s="4">
         <v>42686</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="F26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1343,8 +1346,8 @@
         <v>42686</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="6" t="s">
-        <v>72</v>
+      <c r="G27" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -1365,8 +1368,8 @@
         <v>42686</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="6" t="s">
-        <v>72</v>
+      <c r="G28" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1411,8 +1414,8 @@
         <v>42686</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="6" t="s">
-        <v>72</v>
+      <c r="G30" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -1433,8 +1436,8 @@
         <v>42686</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="6" t="s">
-        <v>72</v>
+      <c r="G31" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -1479,8 +1482,8 @@
         <v>42686</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="6" t="s">
-        <v>72</v>
+      <c r="G33" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1501,8 +1504,8 @@
         <v>42686</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="6" t="s">
-        <v>72</v>
+      <c r="G34" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -1724,18 +1727,48 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>42686</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1743,7 +1776,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -1767,7 +1800,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C47" s="3">
         <v>4</v>
@@ -1791,46 +1824,42 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3">
         <v>5</v>
       </c>
       <c r="D48" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="4">
-        <v>42686</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" s="3"/>
+        <v>42687</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3">
         <v>4</v>
       </c>
       <c r="D49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="4">
-        <v>42686</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>74</v>
+        <v>42687</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H49" s="3"/>
     </row>
@@ -1839,33 +1868,34 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3">
         <v>5</v>
       </c>
       <c r="D50" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" s="4">
         <v>42687</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="F50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" s="3">
         <v>2</v>
@@ -1873,8 +1903,11 @@
       <c r="E51" s="4">
         <v>42687</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>72</v>
+      <c r="F51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H51" s="3"/>
     </row>
@@ -1883,10 +1916,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="3">
         <v>2</v>
@@ -1907,10 +1940,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
@@ -1918,11 +1951,8 @@
       <c r="E53" s="4">
         <v>42687</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>74</v>
+      <c r="G53" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -1931,10 +1961,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C54" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
@@ -1942,11 +1972,8 @@
       <c r="E54" s="4">
         <v>42687</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>74</v>
+      <c r="G54" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -1955,7 +1982,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C55" s="3">
         <v>4</v>
@@ -1976,10 +2003,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" s="3">
         <v>2</v>
@@ -1996,20 +2023,20 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>59</v>
+      <c r="B57" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C57" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="4">
         <v>42687</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H57" s="3"/>
     </row>
@@ -2017,17 +2044,17 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>58</v>
+      <c r="B58" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C58" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" s="3">
         <v>2</v>
       </c>
       <c r="E58" s="4">
-        <v>42687</v>
+        <v>42690</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>80</v>
@@ -2039,19 +2066,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="4">
-        <v>42687</v>
+        <v>42690</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -2060,7 +2087,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3">
         <v>5</v>
@@ -2081,7 +2108,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -2090,10 +2117,10 @@
         <v>2</v>
       </c>
       <c r="E61" s="4">
-        <v>42690</v>
+        <v>42703</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H61" s="3"/>
     </row>
@@ -2102,7 +2129,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C62" s="3">
         <v>5</v>
@@ -2111,10 +2138,10 @@
         <v>2</v>
       </c>
       <c r="E62" s="4">
-        <v>42690</v>
+        <v>42703</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -2123,7 +2150,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -2144,7 +2171,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -2165,7 +2192,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="3">
         <v>5</v>
@@ -2174,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="4">
-        <v>42703</v>
+        <v>42690</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>72</v>
@@ -2186,7 +2213,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -2195,54 +2222,12 @@
         <v>2</v>
       </c>
       <c r="E66" s="4">
-        <v>42703</v>
+        <v>42690</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>72</v>
       </c>
       <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="3">
-        <v>5</v>
-      </c>
-      <c r="D67" s="3">
-        <v>2</v>
-      </c>
-      <c r="E67" s="4">
-        <v>42690</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="3">
-        <v>5</v>
-      </c>
-      <c r="D68" s="3">
-        <v>2</v>
-      </c>
-      <c r="E68" s="4">
-        <v>42690</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>27/05/2017</t>
+  </si>
+  <si>
+    <t>28/05/2017</t>
   </si>
 </sst>
 </file>
@@ -705,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,9 +1550,11 @@
       <c r="E36" s="4">
         <v>42686</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="6" t="s">
-        <v>72</v>
+      <c r="F36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -2119,8 +2124,11 @@
       <c r="E61" s="4">
         <v>42703</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>72</v>
+      <c r="F61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H61" s="3"/>
     </row>
@@ -2224,8 +2232,11 @@
       <c r="E66" s="4">
         <v>42690</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>72</v>
+      <c r="F66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="H66" s="3"/>
     </row>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Unit Tests</t>
-  </si>
-  <si>
     <t>14/05/2017</t>
   </si>
   <si>
@@ -283,6 +280,15 @@
   </si>
   <si>
     <t>28/05/2017</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>AS1-5,AS9-10,AR1,AR3,DER1,DER3</t>
+  </si>
+  <si>
+    <t>TS4-7,TR2-3,TR6-7</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -301,7 +307,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -709,23 +715,23 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="44.375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -751,10 +757,10 @@
         <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -777,8 +783,11 @@
         <v>74</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -800,7 +809,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -822,7 +831,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -839,14 +848,14 @@
         <v>42686</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -863,14 +872,17 @@
         <v>42686</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -894,7 +906,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -918,7 +930,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -942,7 +954,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -966,7 +978,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1014,7 +1026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1036,7 +1048,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1054,11 +1066,11 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1076,11 +1088,11 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1102,7 +1114,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1120,11 +1132,11 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1141,14 +1153,14 @@
         <v>42686</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1170,7 +1182,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1194,7 +1206,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1218,7 +1230,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1242,7 +1254,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1260,11 +1272,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1282,11 +1294,11 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1304,11 +1316,11 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1325,14 +1337,14 @@
         <v>42686</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1350,11 +1362,11 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1372,11 +1384,11 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1393,14 +1405,14 @@
         <v>42686</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1418,11 +1430,11 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1440,11 +1452,11 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1461,14 +1473,14 @@
         <v>42686</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1486,11 +1498,11 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1508,11 +1520,11 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1534,7 +1546,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1551,14 +1563,14 @@
         <v>42686</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1575,7 +1587,7 @@
         <v>42686</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>74</v>
@@ -1584,7 +1596,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1601,14 +1613,14 @@
         <v>42686</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1625,14 +1637,14 @@
         <v>42686</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1649,14 +1661,14 @@
         <v>42686</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1673,14 +1685,14 @@
         <v>42686</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1697,14 +1709,14 @@
         <v>42686</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1721,14 +1733,14 @@
         <v>42686</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1745,14 +1757,14 @@
         <v>42686</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1769,14 +1781,14 @@
         <v>42686</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1793,14 +1805,14 @@
         <v>42686</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1817,14 +1829,14 @@
         <v>42686</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1868,7 +1880,7 @@
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1885,14 +1897,14 @@
         <v>42687</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1909,14 +1921,14 @@
         <v>42687</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1933,14 +1945,14 @@
         <v>42687</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1961,7 +1973,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1982,7 +1994,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2003,7 +2015,7 @@
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2024,7 +2036,7 @@
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2045,7 +2057,7 @@
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2066,7 +2078,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2087,7 +2099,7 @@
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2108,7 +2120,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2125,14 +2137,14 @@
         <v>42703</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2153,7 +2165,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2174,7 +2186,7 @@
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2195,7 +2207,7 @@
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2216,7 +2228,7 @@
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2233,23 +2245,23 @@
         <v>42690</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -2266,7 +2278,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2278,7 +2290,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -288,14 +288,53 @@
     <t>AS1-5,AS9-10,AR1,AR3,DER1,DER3</t>
   </si>
   <si>
-    <t>TS4-7,TR2-3,TR6-7</t>
+    <t>TS4-7,TR2-3,TR6-7,DER2</t>
+  </si>
+  <si>
+    <t>Disbanded</t>
+  </si>
+  <si>
+    <t>TS1-3,TR1,DER1</t>
+  </si>
+  <si>
+    <t>TS8-10,TR3,TR4,DER2</t>
+  </si>
+  <si>
+    <t>TR5,TR8,TS11-13,DER4</t>
+  </si>
+  <si>
+    <t>WDS1-5,DER1</t>
+  </si>
+  <si>
+    <t>HWS11.1-15,HWR4,DER3</t>
+  </si>
+  <si>
+    <t>HWS11.2-15,HWR4,DER3</t>
+  </si>
+  <si>
+    <t>HWS11.3-15,HWR4,DER3</t>
+  </si>
+  <si>
+    <t>HWS11.4,HWR3,DER3</t>
+  </si>
+  <si>
+    <t>HWS11.5,HWR3,DER3</t>
+  </si>
+  <si>
+    <t>HWS11.6,HWR3,DER3</t>
+  </si>
+  <si>
+    <t>HWS10,10.1,11,12,HWR2-4,HWR6,DER2,3</t>
+  </si>
+  <si>
+    <t>WDS6-9,DER2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +350,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +385,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -346,11 +399,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,8 +443,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -715,7 +788,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -854,6 +927,9 @@
         <v>74</v>
       </c>
       <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1026,7 +1102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1048,7 +1124,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1065,12 +1141,12 @@
         <v>42686</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="8" t="s">
-        <v>84</v>
+      <c r="G14" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1087,12 +1163,12 @@
         <v>42686</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="8" t="s">
-        <v>84</v>
+      <c r="G15" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1114,7 +1190,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1131,12 +1207,12 @@
         <v>42686</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="8" t="s">
-        <v>84</v>
+      <c r="G17" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1160,7 +1236,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1182,7 +1258,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1205,8 +1281,11 @@
         <v>74</v>
       </c>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1229,8 +1308,11 @@
         <v>74</v>
       </c>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1253,8 +1335,11 @@
         <v>74</v>
       </c>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1276,7 +1361,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1298,7 +1383,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1320,7 +1405,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1343,8 +1428,11 @@
         <v>74</v>
       </c>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1366,7 +1454,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1388,7 +1476,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1411,8 +1499,11 @@
         <v>74</v>
       </c>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1433,8 +1524,11 @@
         <v>84</v>
       </c>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1455,8 +1549,11 @@
         <v>84</v>
       </c>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1479,8 +1576,11 @@
         <v>74</v>
       </c>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1501,8 +1601,11 @@
         <v>84</v>
       </c>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1523,8 +1626,11 @@
         <v>84</v>
       </c>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1546,7 +1652,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1569,8 +1675,11 @@
         <v>74</v>
       </c>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1596,7 +1705,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1620,7 +1729,7 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1644,7 +1753,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1668,7 +1777,7 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1692,7 +1801,7 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1716,7 +1825,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1740,7 +1849,7 @@
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1764,7 +1873,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1788,7 +1897,7 @@
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1812,7 +1921,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1836,7 +1945,7 @@
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Viewing text for reading</t>
   </si>
   <si>
-    <t>Answer could be submited</t>
-  </si>
-  <si>
     <t>Pupil will get a notification when he got a feedback</t>
   </si>
   <si>
@@ -288,21 +285,9 @@
     <t>AS1-5,AS9-10,AR1,AR3,DER1,DER3</t>
   </si>
   <si>
-    <t>TS4-7,TR2-3,TR6-7,DER2</t>
-  </si>
-  <si>
     <t>Disbanded</t>
   </si>
   <si>
-    <t>TS1-3,TR1,DER1</t>
-  </si>
-  <si>
-    <t>TS8-10,TR3,TR4,DER2</t>
-  </si>
-  <si>
-    <t>TR5,TR8,TS11-13,DER4</t>
-  </si>
-  <si>
     <t>WDS1-5,DER1</t>
   </si>
   <si>
@@ -328,6 +313,39 @@
   </si>
   <si>
     <t>WDS6-9,DER2</t>
+  </si>
+  <si>
+    <t>SS8-11,SR4,DER3</t>
+  </si>
+  <si>
+    <t>SS1-3,SR1,SR10-12,DER1</t>
+  </si>
+  <si>
+    <t>SS12-15,SR5,DER4</t>
+  </si>
+  <si>
+    <t>TxR5,TxR8,TxS11-13,DER4</t>
+  </si>
+  <si>
+    <t>TxS1-3,TxR1,DER1</t>
+  </si>
+  <si>
+    <t>TxS8-10,TxR3,TxR4,DER2</t>
+  </si>
+  <si>
+    <t>TxS4-7,TxR2-3,TxR6-7,DER2</t>
+  </si>
+  <si>
+    <t>TS1-3,TR1,TR9-10,DER1</t>
+  </si>
+  <si>
+    <t>TS8-11,TR4,DER3</t>
+  </si>
+  <si>
+    <t>TS12-15,SR5,DER4</t>
+  </si>
+  <si>
+    <t>Answer could be submitted</t>
   </si>
 </sst>
 </file>
@@ -419,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +464,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -787,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -827,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -850,14 +869,14 @@
         <v>42686</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -878,7 +897,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -900,7 +919,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -921,14 +940,14 @@
         <v>42686</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -936,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -948,14 +967,14 @@
         <v>42686</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -978,7 +997,7 @@
         <v>43011</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1002,7 +1021,7 @@
         <v>43011</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -1026,7 +1045,7 @@
         <v>43011</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -1047,10 +1066,10 @@
         <v>42686</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -1072,10 +1091,10 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1096,10 +1115,10 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1120,7 +1139,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -1142,7 +1161,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -1164,7 +1183,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1186,7 +1205,7 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1208,7 +1227,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -1217,7 +1236,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1229,10 +1248,10 @@
         <v>42686</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -1254,7 +1273,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -1275,14 +1294,14 @@
         <v>42686</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1302,14 +1321,14 @@
         <v>42686</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1329,14 +1348,14 @@
         <v>42686</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1357,7 +1376,7 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -1379,7 +1398,7 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -1401,7 +1420,7 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -1422,14 +1441,14 @@
         <v>42686</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1450,7 +1469,7 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -1472,7 +1491,7 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1493,14 +1512,14 @@
         <v>42686</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1521,11 +1540,11 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1546,11 +1565,11 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1570,14 +1589,14 @@
         <v>42686</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1598,11 +1617,11 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1623,11 +1642,11 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1648,7 +1667,7 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H35" s="3"/>
     </row>
@@ -1669,14 +1688,14 @@
         <v>42686</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1696,13 +1715,13 @@
         <v>42686</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1722,12 +1741,15 @@
         <v>42686</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" s="3"/>
+      <c r="I38" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -1746,12 +1768,15 @@
         <v>42686</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H39" s="3"/>
+      <c r="I39" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -1770,12 +1795,15 @@
         <v>42686</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="3"/>
+      <c r="I40" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -1794,12 +1822,15 @@
         <v>42686</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H41" s="3"/>
+      <c r="I41" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -1818,12 +1849,15 @@
         <v>42686</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" s="3"/>
+      <c r="I42" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -1842,12 +1876,15 @@
         <v>42686</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43" s="3"/>
+      <c r="I43" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -1866,10 +1903,10 @@
         <v>42686</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -1890,10 +1927,10 @@
         <v>42686</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -1914,10 +1951,10 @@
         <v>42686</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H46" s="3"/>
     </row>
@@ -1938,10 +1975,10 @@
         <v>42686</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -1950,7 +1987,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="C48" s="3">
         <v>5</v>
@@ -1961,11 +1998,14 @@
       <c r="E48" s="4">
         <v>42687</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>72</v>
+      <c r="F48" s="10">
+        <v>42891</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1973,7 +2013,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="3">
         <v>4</v>
@@ -1984,8 +2024,11 @@
       <c r="E49" s="4">
         <v>42687</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>72</v>
+      <c r="F49" s="10">
+        <v>42891</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="H49" s="3"/>
     </row>
@@ -1994,7 +2037,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="3">
         <v>5</v>
@@ -2006,10 +2049,10 @@
         <v>42687</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -2018,7 +2061,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="3">
         <v>5</v>
@@ -2030,10 +2073,10 @@
         <v>42687</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H51" s="3"/>
     </row>
@@ -2042,7 +2085,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="3">
         <v>4</v>
@@ -2054,10 +2097,10 @@
         <v>42687</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -2066,7 +2109,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3">
         <v>4</v>
@@ -2078,7 +2121,7 @@
         <v>42687</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -2087,7 +2130,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="3">
         <v>5</v>
@@ -2099,7 +2142,7 @@
         <v>42687</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -2108,7 +2151,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3">
         <v>4</v>
@@ -2120,7 +2163,7 @@
         <v>42687</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -2129,7 +2172,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="3">
         <v>4</v>
@@ -2141,7 +2184,7 @@
         <v>42687</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -2150,7 +2193,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
@@ -2162,7 +2205,7 @@
         <v>42687</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H57" s="3"/>
     </row>
@@ -2171,7 +2214,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="3">
         <v>5</v>
@@ -2183,7 +2226,7 @@
         <v>42690</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H58" s="3"/>
     </row>
@@ -2192,7 +2235,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="3">
         <v>5</v>
@@ -2204,7 +2247,7 @@
         <v>42690</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -2213,7 +2256,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="3">
         <v>5</v>
@@ -2225,7 +2268,7 @@
         <v>42690</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -2234,7 +2277,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -2246,10 +2289,10 @@
         <v>42703</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H61" s="3"/>
     </row>
@@ -2258,7 +2301,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="3">
         <v>5</v>
@@ -2270,7 +2313,7 @@
         <v>42703</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -2279,7 +2322,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="3">
         <v>5</v>
@@ -2291,7 +2334,7 @@
         <v>42703</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -2300,7 +2343,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="3">
         <v>5</v>
@@ -2312,7 +2355,7 @@
         <v>42703</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H64" s="3"/>
     </row>
@@ -2321,7 +2364,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="3">
         <v>5</v>
@@ -2333,7 +2376,7 @@
         <v>42690</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H65" s="3"/>
     </row>
@@ -2342,7 +2385,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
@@ -2354,10 +2397,10 @@
         <v>42690</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H66" s="3"/>
     </row>

--- a/Functional Requirements.xlsx
+++ b/Functional Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -346,6 +346,33 @@
   </si>
   <si>
     <t>Answer could be submitted</t>
+  </si>
+  <si>
+    <t>AS10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCS13.2, SCS12.3, SCR4,DER3 </t>
+  </si>
+  <si>
+    <t>SCS13.1,SCS12.3,SCR4,DER3</t>
+  </si>
+  <si>
+    <t>SCS13.4,SCS12.3,SCR3,DER3</t>
+  </si>
+  <si>
+    <t>SCS1-3,SCR1,DER1</t>
+  </si>
+  <si>
+    <t>SCS10-13.5,SCR4,DER3</t>
+  </si>
+  <si>
+    <t>SCS14-19,SCR5,DER4</t>
+  </si>
+  <si>
+    <t>SCS13.5,SCR4,DER3</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -806,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2007,8 +2034,11 @@
       <c r="H48" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2031,8 +2061,11 @@
         <v>73</v>
       </c>
       <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2055,8 +2088,11 @@
         <v>73</v>
       </c>
       <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2079,8 +2115,11 @@
         <v>73</v>
       </c>
       <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2103,8 +2142,11 @@
         <v>73</v>
       </c>
       <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2124,8 +2166,11 @@
         <v>79</v>
       </c>
       <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2145,8 +2190,11 @@
         <v>79</v>
       </c>
       <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2166,8 +2214,11 @@
         <v>79</v>
       </c>
       <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2187,8 +2238,11 @@
         <v>79</v>
       </c>
       <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2209,7 +2263,7 @@
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2229,8 +2283,11 @@
         <v>79</v>
       </c>
       <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2250,8 +2307,11 @@
         <v>79</v>
       </c>
       <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2271,8 +2331,11 @@
         <v>79</v>
       </c>
       <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2296,7 +2359,7 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2317,7 +2380,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2338,7 +2401,7 @@
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
